--- a/data/ingest/monasteries.xlsx
+++ b/data/ingest/monasteries.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10107"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BEF2693-6155-1648-A0C0-B9E103C56DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="80">
   <si>
     <t>Name</t>
   </si>
@@ -87,9 +88,6 @@
     <t>Bakke</t>
   </si>
   <si>
-    <t>Helgeseter</t>
-  </si>
-  <si>
     <t>Dominican Friary</t>
   </si>
   <si>
@@ -178,12 +176,96 @@
   </si>
   <si>
     <t>PlaceGND</t>
+  </si>
+  <si>
+    <t>Founded when</t>
+  </si>
+  <si>
+    <t>Founded who</t>
+  </si>
+  <si>
+    <t>1100-1161</t>
+  </si>
+  <si>
+    <t>pre 1291</t>
+  </si>
+  <si>
+    <t>1161-1181</t>
+  </si>
+  <si>
+    <t>1234-1260</t>
+  </si>
+  <si>
+    <t>Håkon Håkonsson</t>
+  </si>
+  <si>
+    <t>1150-1191</t>
+  </si>
+  <si>
+    <t>Gimsøy</t>
+  </si>
+  <si>
+    <t>Skien</t>
+  </si>
+  <si>
+    <t>Bistum</t>
+  </si>
+  <si>
+    <t>Dag Eilivsson</t>
+  </si>
+  <si>
+    <t>pre 1160</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>probably became utstein</t>
+  </si>
+  <si>
+    <t>Magnus Håkonsson</t>
+  </si>
+  <si>
+    <t>Kong Eysteinn</t>
+  </si>
+  <si>
+    <t>Arkebiskop Eysteinn</t>
+  </si>
+  <si>
+    <t>1243-1247</t>
+  </si>
+  <si>
+    <t>1240-1263</t>
+  </si>
+  <si>
+    <t>1163-1164</t>
+  </si>
+  <si>
+    <t>Erling Skakke</t>
+  </si>
+  <si>
+    <t>Biskop Sigurd</t>
+  </si>
+  <si>
+    <t>Elgeseter</t>
+  </si>
+  <si>
+    <t>pre 1472</t>
+  </si>
+  <si>
+    <t>pre 1234</t>
+  </si>
+  <si>
+    <t>pre 1180</t>
+  </si>
+  <si>
+    <t>nedlagt på 1200-tallet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -230,6 +312,28 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3DF98C47-C10B-BE41-A45E-DF52A9C2F2B8}" name="Tabelle1" displayName="Tabelle1" ref="A1:J36" totalsRowShown="0">
+  <autoFilter ref="A1:J36" xr:uid="{3DF98C47-C10B-BE41-A45E-DF52A9C2F2B8}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J36">
+    <sortCondition ref="B1:B36"/>
+  </sortState>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{C96EAAFE-EB7F-DE49-9B78-C640C93556F7}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{186819B1-D077-EF49-985F-8034CD3D143C}" name="Place"/>
+    <tableColumn id="3" xr3:uid="{FD17FB51-9525-4946-AEB6-C19E869A70CD}" name="Order"/>
+    <tableColumn id="4" xr3:uid="{12E1602F-3156-384A-BD99-0D7C5A07E1BD}" name="GND"/>
+    <tableColumn id="5" xr3:uid="{277D9FDD-7DB7-7546-9BE8-C3F72041BCE7}" name="Mother abbey"/>
+    <tableColumn id="6" xr3:uid="{1A19ED38-990F-0945-B51F-E98CCC008CEC}" name="PlaceGND"/>
+    <tableColumn id="7" xr3:uid="{C9C048F1-E496-2040-ADC4-DF9D4983BD2F}" name="Founded when"/>
+    <tableColumn id="8" xr3:uid="{C09C0161-0F14-0843-B1B3-0A6F77C98571}" name="Founded who"/>
+    <tableColumn id="9" xr3:uid="{C0FE93A4-BABA-1A46-82AD-8A68257936A4}" name="Bistum"/>
+    <tableColumn id="10" xr3:uid="{C5507235-C1EE-6B4C-B92D-B74D657F9983}" name="Notes"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -494,22 +598,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="29.1640625" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -520,391 +627,587 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>1150</v>
+      </c>
+      <c r="I4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>1110</v>
+      </c>
+      <c r="H5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>1150</v>
+      </c>
+      <c r="I6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="E7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7">
+        <v>1146</v>
+      </c>
+      <c r="H7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="G14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" t="s">
+        <v>69</v>
+      </c>
+      <c r="I14" t="s">
         <v>20</v>
       </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" t="s">
+        <v>78</v>
+      </c>
+      <c r="J16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="G19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="G20">
+        <v>1183</v>
+      </c>
+      <c r="H20" t="s">
+        <v>69</v>
+      </c>
+      <c r="I20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>76</v>
+      </c>
+      <c r="I21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>55</v>
+      </c>
+      <c r="I23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>17</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" t="s">
+        <v>38</v>
+      </c>
+      <c r="I29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30">
+        <v>1100</v>
+      </c>
+      <c r="I30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31">
+        <v>1150</v>
+      </c>
+      <c r="H31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" t="s">
+        <v>64</v>
+      </c>
+      <c r="J32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
         <v>33</v>
       </c>
-      <c r="C24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="G34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" t="s">
         <v>33</v>
       </c>
-      <c r="C25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="G35" t="s">
+        <v>57</v>
+      </c>
+      <c r="H35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" t="s">
-        <v>4</v>
-      </c>
-      <c r="E34" t="s">
-        <v>47</v>
+      <c r="G36">
+        <v>1263</v>
+      </c>
+      <c r="H36" t="s">
+        <v>67</v>
+      </c>
+      <c r="I36" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/ingest/monasteries.xlsx
+++ b/data/ingest/monasteries.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BEF2693-6155-1648-A0C0-B9E103C56DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65E92E7-920A-BE41-89E2-4ECADA5F33A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="83">
   <si>
     <t>Name</t>
   </si>
@@ -260,6 +260,15 @@
   </si>
   <si>
     <t>nedlagt på 1200-tallet</t>
+  </si>
+  <si>
+    <t>Vadstena</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Vadstena kloster</t>
   </si>
 </sst>
 </file>
@@ -315,8 +324,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3DF98C47-C10B-BE41-A45E-DF52A9C2F2B8}" name="Tabelle1" displayName="Tabelle1" ref="A1:J36" totalsRowShown="0">
-  <autoFilter ref="A1:J36" xr:uid="{3DF98C47-C10B-BE41-A45E-DF52A9C2F2B8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3DF98C47-C10B-BE41-A45E-DF52A9C2F2B8}" name="Tabelle1" displayName="Tabelle1" ref="A1:J37" totalsRowShown="0">
+  <autoFilter ref="A1:J37" xr:uid="{3DF98C47-C10B-BE41-A45E-DF52A9C2F2B8}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J36">
     <sortCondition ref="B1:B36"/>
   </sortState>
@@ -599,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:G24"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1204,6 +1213,17 @@
         <v>18</v>
       </c>
     </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" t="s">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
